--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12870" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>구분</t>
   </si>
@@ -270,23 +270,131 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>항목</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 요구사항</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>비기능 요구사항</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약사항</t>
+    <t>업무영역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_01 요구사항 명: 게시판 등록 편집기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글쓰기 기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_in_01 요구사항 명 : 공지사항 게시판 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도 : 하</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제목 글자수 : 100글자 내외
+본문 내용 글자수 : 5000자 내외
+시스템 등록 날짜 사용
+관리자만 글작성 가능 / 작성자 변경 불가(로그인 데이터로 자동 등록)
+공지사항 작성 등록 후 작성한 글 보여짐 
+수정, 삭제 버튼
+alert 등록 되었습니다 / 수정되었습니다 / 삭제되었습니다 출력
+공지사항 목록 리스트에 최근 작성 글 상단 등록
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_yami_01 요구사항 명 : 텍스트 편집기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도: 최상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 로그인시 공지사항 등록 버튼 활성화
+제목 칸 내용 칸
+폰트 사이즈, 굵기, 기울이기, 밑줄, 색상 박스제작
+본문내용 작성시 등록버튼 활성화
+날짜, 작성자 변경 불가
+등록 후 등록되었습니다 문구 출력
+수정 후 수정되었습니다 문구 출력
+삭제 후 삭제되었습니다 문구 출력
+등록 로딩중 이미지 gif파일 돼지 춤추는 파일 등록</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지시항 등록 텍스트 편집기 버전: 1.2.07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시판 등록 버전: 1.2.07</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자: 설성환</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.06.15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://alisyabob.tistory.com/224</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +438,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -346,12 +463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -478,13 +595,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,39 +765,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
@@ -822,38 +1142,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
@@ -864,8 +1184,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -874,8 +1194,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -884,8 +1204,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -894,8 +1214,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -904,8 +1224,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -922,8 +1242,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -936,8 +1256,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
@@ -950,8 +1270,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
@@ -964,7 +1284,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -982,7 +1302,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -990,7 +1310,7 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -998,7 +1318,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1006,7 +1326,7 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1014,7 +1334,7 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1022,7 +1342,7 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1030,7 +1350,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1038,10 +1358,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1052,8 +1372,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1062,43 +1382,49 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -1109,12 +1435,6 @@
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,16 +1444,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
@@ -1250,6 +1570,43 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,46 +1615,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="68.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>